--- a/dados/radios_audiencia.xlsx
+++ b/dados/radios_audiencia.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AudienciaRadios\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029550B-AEEB-4C02-B15A-C933218A0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CBECDA-5E6F-4DBB-BD83-8640806FF600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49A3DB8F-B134-49A9-AB00-9FE4ACECD373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pesquisa 2" sheetId="2" r:id="rId1"/>
+    <sheet name="regiao" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'Pesquisa 2'!$A$1:$K$123</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">regiao!$A$1:$K$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
